--- a/resultsS3M/_byStates.bySex.xlsx
+++ b/resultsS3M/_byStates.bySex.xlsx
@@ -430,13 +430,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>52.84</v>
+        <v>0.5284</v>
       </c>
       <c r="D2" t="n">
-        <v>38.54</v>
+        <v>0.3854</v>
       </c>
       <c r="E2" t="n">
-        <v>67.15</v>
+        <v>0.6715</v>
       </c>
     </row>
     <row r="3">
@@ -447,13 +447,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>80.82</v>
+        <v>0.8082</v>
       </c>
       <c r="D3" t="n">
-        <v>70.15</v>
+        <v>0.7015</v>
       </c>
       <c r="E3" t="n">
-        <v>91.49</v>
+        <v>0.9149</v>
       </c>
     </row>
     <row r="4">
@@ -464,13 +464,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>72.03</v>
+        <v>0.7203</v>
       </c>
       <c r="D4" t="n">
-        <v>61.4</v>
+        <v>0.614</v>
       </c>
       <c r="E4" t="n">
-        <v>82.66</v>
+        <v>0.8266</v>
       </c>
     </row>
     <row r="5">
@@ -481,13 +481,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>52.87</v>
+        <v>0.5287</v>
       </c>
       <c r="D5" t="n">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="E5" t="n">
-        <v>69.73</v>
+        <v>0.6973</v>
       </c>
     </row>
     <row r="6">
@@ -498,13 +498,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>81.03</v>
+        <v>0.8103</v>
       </c>
       <c r="D6" t="n">
-        <v>68.79</v>
+        <v>0.6879</v>
       </c>
       <c r="E6" t="n">
-        <v>93.27</v>
+        <v>0.9327</v>
       </c>
     </row>
     <row r="7">
@@ -515,13 +515,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>72.12</v>
+        <v>0.7212</v>
       </c>
       <c r="D7" t="n">
-        <v>61.08</v>
+        <v>0.6108</v>
       </c>
       <c r="E7" t="n">
-        <v>83.16</v>
+        <v>0.8316</v>
       </c>
     </row>
     <row r="8">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>52.64</v>
+        <v>0.5264</v>
       </c>
       <c r="D8" t="n">
-        <v>36.9</v>
+        <v>0.369</v>
       </c>
       <c r="E8" t="n">
-        <v>68.37</v>
+        <v>0.6837</v>
       </c>
     </row>
     <row r="9">
@@ -549,13 +549,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>81.25</v>
+        <v>0.8125</v>
       </c>
       <c r="D9" t="n">
-        <v>69.67</v>
+        <v>0.6967</v>
       </c>
       <c r="E9" t="n">
-        <v>92.82</v>
+        <v>0.9282</v>
       </c>
     </row>
     <row r="10">
@@ -566,13 +566,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>71.86</v>
+        <v>0.7186</v>
       </c>
       <c r="D10" t="n">
-        <v>60.64</v>
+        <v>0.6064</v>
       </c>
       <c r="E10" t="n">
-        <v>83.08</v>
+        <v>0.8308</v>
       </c>
     </row>
   </sheetData>
@@ -614,13 +614,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>82.91</v>
+        <v>0.8291</v>
       </c>
       <c r="D2" t="n">
-        <v>72.06</v>
+        <v>0.7206</v>
       </c>
       <c r="E2" t="n">
-        <v>93.76</v>
+        <v>0.9376</v>
       </c>
     </row>
     <row r="3">
@@ -631,13 +631,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>96.28</v>
+        <v>0.9628</v>
       </c>
       <c r="D3" t="n">
-        <v>92.06</v>
+        <v>0.9206</v>
       </c>
       <c r="E3" t="n">
-        <v>99.99</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="4">
@@ -648,13 +648,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>91.62</v>
+        <v>0.9162</v>
       </c>
       <c r="D4" t="n">
-        <v>85.63</v>
+        <v>0.8563</v>
       </c>
       <c r="E4" t="n">
-        <v>97.62</v>
+        <v>0.9762</v>
       </c>
     </row>
     <row r="5">
@@ -665,13 +665,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>82.74</v>
+        <v>0.8274</v>
       </c>
       <c r="D5" t="n">
-        <v>69.41</v>
+        <v>0.6941</v>
       </c>
       <c r="E5" t="n">
-        <v>96.07</v>
+        <v>0.9607</v>
       </c>
     </row>
     <row r="6">
@@ -682,13 +682,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>96.55</v>
+        <v>0.9655</v>
       </c>
       <c r="D6" t="n">
-        <v>92.11</v>
+        <v>0.9211</v>
       </c>
       <c r="E6" t="n">
-        <v>99.99</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="7">
@@ -699,13 +699,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>91.61</v>
+        <v>0.9161</v>
       </c>
       <c r="D7" t="n">
-        <v>85.15</v>
+        <v>0.8515</v>
       </c>
       <c r="E7" t="n">
-        <v>98.06</v>
+        <v>0.9806</v>
       </c>
     </row>
     <row r="8">
@@ -716,13 +716,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>83.41</v>
+        <v>0.8341</v>
       </c>
       <c r="D8" t="n">
-        <v>70.05</v>
+        <v>0.7005</v>
       </c>
       <c r="E8" t="n">
-        <v>96.77</v>
+        <v>0.9677</v>
       </c>
     </row>
     <row r="9">
@@ -733,13 +733,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>96.25</v>
+        <v>0.9625</v>
       </c>
       <c r="D9" t="n">
-        <v>91.08</v>
+        <v>0.9108</v>
       </c>
       <c r="E9" t="n">
-        <v>99.99</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="10">
@@ -750,13 +750,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>91.84</v>
+        <v>0.9184</v>
       </c>
       <c r="D10" t="n">
-        <v>85.08</v>
+        <v>0.8508</v>
       </c>
       <c r="E10" t="n">
-        <v>98.59</v>
+        <v>0.9859</v>
       </c>
     </row>
   </sheetData>
@@ -798,13 +798,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>38.52</v>
+        <v>0.3852</v>
       </c>
       <c r="D2" t="n">
-        <v>20.88</v>
+        <v>0.2088</v>
       </c>
       <c r="E2" t="n">
-        <v>56.15</v>
+        <v>0.5615</v>
       </c>
     </row>
     <row r="3">
@@ -815,13 +815,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>81.37</v>
+        <v>0.8137</v>
       </c>
       <c r="D3" t="n">
-        <v>64.14</v>
+        <v>0.6414</v>
       </c>
       <c r="E3" t="n">
-        <v>98.6</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="4">
@@ -832,13 +832,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>65.96</v>
+        <v>0.6596</v>
       </c>
       <c r="D4" t="n">
-        <v>49.48</v>
+        <v>0.4948</v>
       </c>
       <c r="E4" t="n">
-        <v>82.43</v>
+        <v>0.8243</v>
       </c>
     </row>
     <row r="5">
@@ -849,13 +849,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>40.45</v>
+        <v>0.4045</v>
       </c>
       <c r="D5" t="n">
-        <v>17.97</v>
+        <v>0.1797</v>
       </c>
       <c r="E5" t="n">
-        <v>62.94</v>
+        <v>0.6294</v>
       </c>
     </row>
     <row r="6">
@@ -866,13 +866,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>79.95</v>
+        <v>0.7995</v>
       </c>
       <c r="D6" t="n">
-        <v>59.88</v>
+        <v>0.5988</v>
       </c>
       <c r="E6" t="n">
-        <v>99.99</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="7">
@@ -883,13 +883,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>65.57</v>
+        <v>0.6557</v>
       </c>
       <c r="D7" t="n">
-        <v>48.11</v>
+        <v>0.4811</v>
       </c>
       <c r="E7" t="n">
-        <v>83.03</v>
+        <v>0.8303</v>
       </c>
     </row>
     <row r="8">
@@ -900,13 +900,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>36.98</v>
+        <v>0.3698</v>
       </c>
       <c r="D8" t="n">
-        <v>17.14</v>
+        <v>0.1714</v>
       </c>
       <c r="E8" t="n">
-        <v>56.82</v>
+        <v>0.5682</v>
       </c>
     </row>
     <row r="9">
@@ -917,13 +917,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>83.04</v>
+        <v>0.8304</v>
       </c>
       <c r="D9" t="n">
-        <v>64.71</v>
+        <v>0.6471</v>
       </c>
       <c r="E9" t="n">
-        <v>99.99</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="10">
@@ -934,13 +934,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>66.29</v>
+        <v>0.6629</v>
       </c>
       <c r="D10" t="n">
-        <v>47.73</v>
+        <v>0.4773</v>
       </c>
       <c r="E10" t="n">
-        <v>84.84</v>
+        <v>0.8484</v>
       </c>
     </row>
   </sheetData>
@@ -982,13 +982,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>72.41</v>
+        <v>0.7241</v>
       </c>
       <c r="D2" t="n">
-        <v>60.05</v>
+        <v>0.6005</v>
       </c>
       <c r="E2" t="n">
-        <v>84.78</v>
+        <v>0.8478</v>
       </c>
     </row>
     <row r="3">
@@ -999,13 +999,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>89.51</v>
+        <v>0.8951</v>
       </c>
       <c r="D3" t="n">
-        <v>82.4</v>
+        <v>0.824</v>
       </c>
       <c r="E3" t="n">
-        <v>96.63</v>
+        <v>0.9663</v>
       </c>
     </row>
     <row r="4">
@@ -1016,13 +1016,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>84.32</v>
+        <v>0.8432</v>
       </c>
       <c r="D4" t="n">
-        <v>75.27</v>
+        <v>0.7527</v>
       </c>
       <c r="E4" t="n">
-        <v>93.37</v>
+        <v>0.9337</v>
       </c>
     </row>
     <row r="5">
@@ -1033,13 +1033,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>72.51</v>
+        <v>0.7251</v>
       </c>
       <c r="D5" t="n">
-        <v>57.59</v>
+        <v>0.5759</v>
       </c>
       <c r="E5" t="n">
-        <v>87.43</v>
+        <v>0.8743</v>
       </c>
     </row>
     <row r="6">
@@ -1050,13 +1050,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>88.47</v>
+        <v>0.8847</v>
       </c>
       <c r="D6" t="n">
-        <v>79.38</v>
+        <v>0.7938</v>
       </c>
       <c r="E6" t="n">
-        <v>97.56</v>
+        <v>0.9756</v>
       </c>
     </row>
     <row r="7">
@@ -1067,13 +1067,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>83.66</v>
+        <v>0.8366</v>
       </c>
       <c r="D7" t="n">
-        <v>75.09</v>
+        <v>0.7509</v>
       </c>
       <c r="E7" t="n">
-        <v>92.23</v>
+        <v>0.9223</v>
       </c>
     </row>
     <row r="8">
@@ -1084,13 +1084,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>72.43</v>
+        <v>0.7243</v>
       </c>
       <c r="D8" t="n">
-        <v>57.14</v>
+        <v>0.5714</v>
       </c>
       <c r="E8" t="n">
-        <v>87.73</v>
+        <v>0.8773</v>
       </c>
     </row>
     <row r="9">
@@ -1101,13 +1101,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>90.8</v>
+        <v>0.908</v>
       </c>
       <c r="D9" t="n">
-        <v>83.27</v>
+        <v>0.8327</v>
       </c>
       <c r="E9" t="n">
-        <v>98.33</v>
+        <v>0.9833</v>
       </c>
     </row>
     <row r="10">
@@ -1118,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>85.13</v>
+        <v>0.8513</v>
       </c>
       <c r="D10" t="n">
-        <v>75.79</v>
+        <v>0.7579</v>
       </c>
       <c r="E10" t="n">
-        <v>94.47</v>
+        <v>0.9447</v>
       </c>
     </row>
   </sheetData>
@@ -1166,13 +1166,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>63.55</v>
+        <v>0.6355</v>
       </c>
       <c r="D2" t="n">
-        <v>51.39</v>
+        <v>0.5139</v>
       </c>
       <c r="E2" t="n">
-        <v>75.72</v>
+        <v>0.7572</v>
       </c>
     </row>
     <row r="3">
@@ -1183,13 +1183,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>80.68</v>
+        <v>0.8068</v>
       </c>
       <c r="D3" t="n">
-        <v>69.88</v>
+        <v>0.6988</v>
       </c>
       <c r="E3" t="n">
-        <v>91.48</v>
+        <v>0.9148</v>
       </c>
     </row>
     <row r="4">
@@ -1200,13 +1200,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>75.24</v>
+        <v>0.7524</v>
       </c>
       <c r="D4" t="n">
-        <v>65.15</v>
+        <v>0.6515</v>
       </c>
       <c r="E4" t="n">
-        <v>85.34</v>
+        <v>0.8534</v>
       </c>
     </row>
     <row r="5">
@@ -1217,13 +1217,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>62.86</v>
+        <v>0.6286</v>
       </c>
       <c r="D5" t="n">
-        <v>48.62</v>
+        <v>0.4862</v>
       </c>
       <c r="E5" t="n">
-        <v>77.1</v>
+        <v>0.771</v>
       </c>
     </row>
     <row r="6">
@@ -1234,13 +1234,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>80.36</v>
+        <v>0.8036</v>
       </c>
       <c r="D6" t="n">
-        <v>69.12</v>
+        <v>0.6912</v>
       </c>
       <c r="E6" t="n">
-        <v>91.6</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="7">
@@ -1251,13 +1251,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>75.03</v>
+        <v>0.7503</v>
       </c>
       <c r="D7" t="n">
-        <v>64.9</v>
+        <v>0.649</v>
       </c>
       <c r="E7" t="n">
-        <v>85.16</v>
+        <v>0.8516</v>
       </c>
     </row>
     <row r="8">
@@ -1268,13 +1268,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>64.81</v>
+        <v>0.6481</v>
       </c>
       <c r="D8" t="n">
-        <v>50.15</v>
+        <v>0.5015</v>
       </c>
       <c r="E8" t="n">
-        <v>79.47</v>
+        <v>0.7947</v>
       </c>
     </row>
     <row r="9">
@@ -1285,13 +1285,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>81.07</v>
+        <v>0.8107</v>
       </c>
       <c r="D9" t="n">
-        <v>69.23</v>
+        <v>0.6923</v>
       </c>
       <c r="E9" t="n">
-        <v>92.9</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="10">
@@ -1302,13 +1302,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>75.75</v>
+        <v>0.7575</v>
       </c>
       <c r="D10" t="n">
-        <v>64.38</v>
+        <v>0.6438</v>
       </c>
       <c r="E10" t="n">
-        <v>87.12</v>
+        <v>0.8712</v>
       </c>
     </row>
   </sheetData>
@@ -1350,13 +1350,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>39.09</v>
+        <v>0.3909</v>
       </c>
       <c r="D2" t="n">
-        <v>25.59</v>
+        <v>0.2559</v>
       </c>
       <c r="E2" t="n">
-        <v>52.59</v>
+        <v>0.5259</v>
       </c>
     </row>
     <row r="3">
@@ -1367,13 +1367,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>68.81</v>
+        <v>0.6881</v>
       </c>
       <c r="D3" t="n">
-        <v>56.73</v>
+        <v>0.5673</v>
       </c>
       <c r="E3" t="n">
-        <v>80.89</v>
+        <v>0.8089</v>
       </c>
     </row>
     <row r="4">
@@ -1384,13 +1384,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>60.32</v>
+        <v>0.6032</v>
       </c>
       <c r="D4" t="n">
-        <v>48.41</v>
+        <v>0.4841</v>
       </c>
       <c r="E4" t="n">
-        <v>72.22</v>
+        <v>0.7222</v>
       </c>
     </row>
     <row r="5">
@@ -1401,13 +1401,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>38.38</v>
+        <v>0.3838</v>
       </c>
       <c r="D5" t="n">
-        <v>22.81</v>
+        <v>0.2281</v>
       </c>
       <c r="E5" t="n">
-        <v>53.94</v>
+        <v>0.5394</v>
       </c>
     </row>
     <row r="6">
@@ -1418,13 +1418,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>70.62</v>
+        <v>0.7062</v>
       </c>
       <c r="D6" t="n">
-        <v>57.92</v>
+        <v>0.5792</v>
       </c>
       <c r="E6" t="n">
-        <v>83.31</v>
+        <v>0.8331</v>
       </c>
     </row>
     <row r="7">
@@ -1435,13 +1435,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>61.85</v>
+        <v>0.6185</v>
       </c>
       <c r="D7" t="n">
-        <v>49.64</v>
+        <v>0.4964</v>
       </c>
       <c r="E7" t="n">
-        <v>74.06</v>
+        <v>0.7406</v>
       </c>
     </row>
     <row r="8">
@@ -1452,13 +1452,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>39.02</v>
+        <v>0.3902</v>
       </c>
       <c r="D8" t="n">
-        <v>23.28</v>
+        <v>0.2328</v>
       </c>
       <c r="E8" t="n">
-        <v>54.75</v>
+        <v>0.5475</v>
       </c>
     </row>
     <row r="9">
@@ -1469,13 +1469,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>66.43</v>
+        <v>0.6643</v>
       </c>
       <c r="D9" t="n">
-        <v>50.47</v>
+        <v>0.5047</v>
       </c>
       <c r="E9" t="n">
-        <v>82.39</v>
+        <v>0.8239</v>
       </c>
     </row>
     <row r="10">
@@ -1486,13 +1486,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>58.82</v>
+        <v>0.5882</v>
       </c>
       <c r="D10" t="n">
-        <v>45.13</v>
+        <v>0.4513</v>
       </c>
       <c r="E10" t="n">
-        <v>72.5</v>
+        <v>0.725</v>
       </c>
     </row>
   </sheetData>
@@ -1534,13 +1534,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>37.55</v>
+        <v>0.3755</v>
       </c>
       <c r="D2" t="n">
-        <v>23.4</v>
+        <v>0.234</v>
       </c>
       <c r="E2" t="n">
-        <v>51.7</v>
+        <v>0.517</v>
       </c>
     </row>
     <row r="3">
@@ -1551,13 +1551,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>68.53</v>
+        <v>0.6853</v>
       </c>
       <c r="D3" t="n">
-        <v>54.96</v>
+        <v>0.5496</v>
       </c>
       <c r="E3" t="n">
-        <v>82.1</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="4">
@@ -1568,13 +1568,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>59.68</v>
+        <v>0.5968</v>
       </c>
       <c r="D4" t="n">
-        <v>46.74</v>
+        <v>0.4674</v>
       </c>
       <c r="E4" t="n">
-        <v>72.62</v>
+        <v>0.7262</v>
       </c>
     </row>
     <row r="5">
@@ -1585,13 +1585,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>36.39</v>
+        <v>0.3639</v>
       </c>
       <c r="D5" t="n">
-        <v>18.3</v>
+        <v>0.183</v>
       </c>
       <c r="E5" t="n">
-        <v>54.49</v>
+        <v>0.5449</v>
       </c>
     </row>
     <row r="6">
@@ -1602,13 +1602,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>71.44</v>
+        <v>0.7144</v>
       </c>
       <c r="D6" t="n">
-        <v>58.43</v>
+        <v>0.5843</v>
       </c>
       <c r="E6" t="n">
-        <v>84.45</v>
+        <v>0.8445</v>
       </c>
     </row>
     <row r="7">
@@ -1619,13 +1619,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>61.51</v>
+        <v>0.6151</v>
       </c>
       <c r="D7" t="n">
-        <v>48.57</v>
+        <v>0.4857</v>
       </c>
       <c r="E7" t="n">
-        <v>74.46</v>
+        <v>0.7446</v>
       </c>
     </row>
     <row r="8">
@@ -1636,13 +1636,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>38.97</v>
+        <v>0.3897</v>
       </c>
       <c r="D8" t="n">
-        <v>22.19</v>
+        <v>0.2219</v>
       </c>
       <c r="E8" t="n">
-        <v>55.74</v>
+        <v>0.5574</v>
       </c>
     </row>
     <row r="9">
@@ -1653,13 +1653,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>65.35</v>
+        <v>0.6535</v>
       </c>
       <c r="D9" t="n">
-        <v>50.65</v>
+        <v>0.5065</v>
       </c>
       <c r="E9" t="n">
-        <v>80.05</v>
+        <v>0.8005</v>
       </c>
     </row>
     <row r="10">
@@ -1670,13 +1670,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>57.94</v>
+        <v>0.5794</v>
       </c>
       <c r="D10" t="n">
-        <v>44.24</v>
+        <v>0.4424</v>
       </c>
       <c r="E10" t="n">
-        <v>71.63</v>
+        <v>0.7163</v>
       </c>
     </row>
   </sheetData>
@@ -1718,13 +1718,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>22.41</v>
+        <v>0.2241</v>
       </c>
       <c r="D2" t="n">
-        <v>12.95</v>
+        <v>0.1295</v>
       </c>
       <c r="E2" t="n">
-        <v>31.87</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="3">
@@ -1735,13 +1735,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>66.02</v>
+        <v>0.6602</v>
       </c>
       <c r="D3" t="n">
-        <v>52.9</v>
+        <v>0.529</v>
       </c>
       <c r="E3" t="n">
-        <v>79.13</v>
+        <v>0.7913</v>
       </c>
     </row>
     <row r="4">
@@ -1752,13 +1752,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>50.71</v>
+        <v>0.5071</v>
       </c>
       <c r="D4" t="n">
-        <v>40.49</v>
+        <v>0.4049</v>
       </c>
       <c r="E4" t="n">
-        <v>60.92</v>
+        <v>0.6092</v>
       </c>
     </row>
     <row r="5">
@@ -1769,13 +1769,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>22.57</v>
+        <v>0.2257</v>
       </c>
       <c r="D5" t="n">
-        <v>11.86</v>
+        <v>0.1186</v>
       </c>
       <c r="E5" t="n">
-        <v>33.28</v>
+        <v>0.3328</v>
       </c>
     </row>
     <row r="6">
@@ -1786,13 +1786,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>69.72</v>
+        <v>0.6972</v>
       </c>
       <c r="D6" t="n">
-        <v>56.16</v>
+        <v>0.5616</v>
       </c>
       <c r="E6" t="n">
-        <v>83.29</v>
+        <v>0.8329</v>
       </c>
     </row>
     <row r="7">
@@ -1803,13 +1803,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>53.09</v>
+        <v>0.5309</v>
       </c>
       <c r="D7" t="n">
-        <v>42.48</v>
+        <v>0.4248</v>
       </c>
       <c r="E7" t="n">
-        <v>63.7</v>
+        <v>0.637</v>
       </c>
     </row>
     <row r="8">
@@ -1820,13 +1820,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>21.15</v>
+        <v>0.2115</v>
       </c>
       <c r="D8" t="n">
-        <v>10.78</v>
+        <v>0.1078</v>
       </c>
       <c r="E8" t="n">
-        <v>31.51</v>
+        <v>0.3151</v>
       </c>
     </row>
     <row r="9">
@@ -1837,13 +1837,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>62.7</v>
+        <v>0.627</v>
       </c>
       <c r="D9" t="n">
-        <v>47.69</v>
+        <v>0.4769</v>
       </c>
       <c r="E9" t="n">
-        <v>77.71</v>
+        <v>0.7771</v>
       </c>
     </row>
     <row r="10">
@@ -1854,13 +1854,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>48.47</v>
+        <v>0.4847</v>
       </c>
       <c r="D10" t="n">
-        <v>37.62</v>
+        <v>0.3762</v>
       </c>
       <c r="E10" t="n">
-        <v>59.32</v>
+        <v>0.5932</v>
       </c>
     </row>
   </sheetData>
@@ -1902,13 +1902,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>36.55</v>
+        <v>0.3655</v>
       </c>
       <c r="D2" t="n">
-        <v>22.95</v>
+        <v>0.2295</v>
       </c>
       <c r="E2" t="n">
-        <v>50.16</v>
+        <v>0.5016</v>
       </c>
     </row>
     <row r="3">
@@ -1919,13 +1919,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>74.86</v>
+        <v>0.7486</v>
       </c>
       <c r="D3" t="n">
-        <v>62.46</v>
+        <v>0.6246</v>
       </c>
       <c r="E3" t="n">
-        <v>87.26</v>
+        <v>0.8726</v>
       </c>
     </row>
     <row r="4">
@@ -1936,13 +1936,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>61.79</v>
+        <v>0.6179</v>
       </c>
       <c r="D4" t="n">
-        <v>50.3</v>
+        <v>0.503</v>
       </c>
       <c r="E4" t="n">
-        <v>73.28</v>
+        <v>0.7328</v>
       </c>
     </row>
     <row r="5">
@@ -1953,13 +1953,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>35.46</v>
+        <v>0.3546</v>
       </c>
       <c r="D5" t="n">
-        <v>20.11</v>
+        <v>0.2011</v>
       </c>
       <c r="E5" t="n">
-        <v>50.81</v>
+        <v>0.5081</v>
       </c>
     </row>
     <row r="6">
@@ -1970,13 +1970,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>77.19</v>
+        <v>0.7719</v>
       </c>
       <c r="D6" t="n">
-        <v>65.1</v>
+        <v>0.651</v>
       </c>
       <c r="E6" t="n">
-        <v>89.27</v>
+        <v>0.8927</v>
       </c>
     </row>
     <row r="7">
@@ -1987,13 +1987,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>63.21</v>
+        <v>0.6321</v>
       </c>
       <c r="D7" t="n">
-        <v>51.04</v>
+        <v>0.5104</v>
       </c>
       <c r="E7" t="n">
-        <v>75.39</v>
+        <v>0.7539</v>
       </c>
     </row>
     <row r="8">
@@ -2004,13 +2004,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>37.72</v>
+        <v>0.3772</v>
       </c>
       <c r="D8" t="n">
-        <v>21.4</v>
+        <v>0.214</v>
       </c>
       <c r="E8" t="n">
-        <v>54.04</v>
+        <v>0.5404</v>
       </c>
     </row>
     <row r="9">
@@ -2021,13 +2021,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>72.69</v>
+        <v>0.7269</v>
       </c>
       <c r="D9" t="n">
-        <v>59.26</v>
+        <v>0.5926</v>
       </c>
       <c r="E9" t="n">
-        <v>86.11</v>
+        <v>0.8611</v>
       </c>
     </row>
     <row r="10">
@@ -2038,13 +2038,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>60.51</v>
+        <v>0.6051</v>
       </c>
       <c r="D10" t="n">
-        <v>47.57</v>
+        <v>0.4757</v>
       </c>
       <c r="E10" t="n">
-        <v>73.45</v>
+        <v>0.7345</v>
       </c>
     </row>
   </sheetData>
@@ -2086,13 +2086,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>57.9</v>
+        <v>0.579</v>
       </c>
       <c r="D2" t="n">
-        <v>45.47</v>
+        <v>0.4547</v>
       </c>
       <c r="E2" t="n">
-        <v>70.34</v>
+        <v>0.7034</v>
       </c>
     </row>
     <row r="3">
@@ -2103,13 +2103,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>84.76</v>
+        <v>0.8476</v>
       </c>
       <c r="D3" t="n">
-        <v>74.57</v>
+        <v>0.7457</v>
       </c>
       <c r="E3" t="n">
-        <v>94.95</v>
+        <v>0.9495</v>
       </c>
     </row>
     <row r="4">
@@ -2120,13 +2120,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>76.21</v>
+        <v>0.7621</v>
       </c>
       <c r="D4" t="n">
-        <v>66.48</v>
+        <v>0.6648</v>
       </c>
       <c r="E4" t="n">
-        <v>85.94</v>
+        <v>0.8594</v>
       </c>
     </row>
     <row r="5">
@@ -2137,13 +2137,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>53.72</v>
+        <v>0.5372</v>
       </c>
       <c r="D5" t="n">
-        <v>39.12</v>
+        <v>0.3912</v>
       </c>
       <c r="E5" t="n">
-        <v>68.33</v>
+        <v>0.6833</v>
       </c>
     </row>
     <row r="6">
@@ -2154,13 +2154,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>83.58</v>
+        <v>0.8358</v>
       </c>
       <c r="D6" t="n">
-        <v>73.4</v>
+        <v>0.734</v>
       </c>
       <c r="E6" t="n">
-        <v>93.76</v>
+        <v>0.9376</v>
       </c>
     </row>
     <row r="7">
@@ -2171,13 +2171,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>74.51</v>
+        <v>0.7451</v>
       </c>
       <c r="D7" t="n">
-        <v>64.51</v>
+        <v>0.6451</v>
       </c>
       <c r="E7" t="n">
-        <v>84.51</v>
+        <v>0.8451</v>
       </c>
     </row>
     <row r="8">
@@ -2188,13 +2188,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>61.9</v>
+        <v>0.619</v>
       </c>
       <c r="D8" t="n">
-        <v>47.25</v>
+        <v>0.4725</v>
       </c>
       <c r="E8" t="n">
-        <v>76.55</v>
+        <v>0.7655</v>
       </c>
     </row>
     <row r="9">
@@ -2205,13 +2205,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>85.91</v>
+        <v>0.8591</v>
       </c>
       <c r="D9" t="n">
-        <v>74.54</v>
+        <v>0.7454</v>
       </c>
       <c r="E9" t="n">
-        <v>97.28</v>
+        <v>0.9728</v>
       </c>
     </row>
     <row r="10">
@@ -2222,13 +2222,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>78.51</v>
+        <v>0.7851</v>
       </c>
       <c r="D10" t="n">
-        <v>67.84</v>
+        <v>0.6784</v>
       </c>
       <c r="E10" t="n">
-        <v>89.18</v>
+        <v>0.8918</v>
       </c>
     </row>
   </sheetData>
@@ -2270,13 +2270,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>72.53</v>
+        <v>0.7253</v>
       </c>
       <c r="D2" t="n">
-        <v>57.72</v>
+        <v>0.5772</v>
       </c>
       <c r="E2" t="n">
-        <v>87.35</v>
+        <v>0.8735</v>
       </c>
     </row>
     <row r="3">
@@ -2287,13 +2287,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>90.85</v>
+        <v>0.9085</v>
       </c>
       <c r="D3" t="n">
-        <v>84.18</v>
+        <v>0.8418</v>
       </c>
       <c r="E3" t="n">
-        <v>97.52</v>
+        <v>0.9752</v>
       </c>
     </row>
     <row r="4">
@@ -2304,13 +2304,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>85.8</v>
+        <v>0.858</v>
       </c>
       <c r="D4" t="n">
-        <v>77.2</v>
+        <v>0.772</v>
       </c>
       <c r="E4" t="n">
-        <v>94.41</v>
+        <v>0.9441</v>
       </c>
     </row>
     <row r="5">
@@ -2321,13 +2321,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>71.13</v>
+        <v>0.7113</v>
       </c>
       <c r="D5" t="n">
-        <v>55.11</v>
+        <v>0.5511</v>
       </c>
       <c r="E5" t="n">
-        <v>87.15</v>
+        <v>0.8715</v>
       </c>
     </row>
     <row r="6">
@@ -2338,13 +2338,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>91.54</v>
+        <v>0.9154</v>
       </c>
       <c r="D6" t="n">
-        <v>85.45</v>
+        <v>0.8545</v>
       </c>
       <c r="E6" t="n">
-        <v>97.64</v>
+        <v>0.9764</v>
       </c>
     </row>
     <row r="7">
@@ -2355,13 +2355,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>86.4</v>
+        <v>0.864</v>
       </c>
       <c r="D7" t="n">
-        <v>78.59</v>
+        <v>0.7859</v>
       </c>
       <c r="E7" t="n">
-        <v>94.21</v>
+        <v>0.9421</v>
       </c>
     </row>
     <row r="8">
@@ -2372,13 +2372,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>74.18</v>
+        <v>0.7418</v>
       </c>
       <c r="D8" t="n">
-        <v>58.55</v>
+        <v>0.5855</v>
       </c>
       <c r="E8" t="n">
-        <v>89.82</v>
+        <v>0.8982</v>
       </c>
     </row>
     <row r="9">
@@ -2389,13 +2389,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>89.97</v>
+        <v>0.8997</v>
       </c>
       <c r="D9" t="n">
-        <v>82.03</v>
+        <v>0.8203</v>
       </c>
       <c r="E9" t="n">
-        <v>97.91</v>
+        <v>0.9791</v>
       </c>
     </row>
     <row r="10">
@@ -2406,13 +2406,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>85.12</v>
+        <v>0.8512</v>
       </c>
       <c r="D10" t="n">
-        <v>76.07</v>
+        <v>0.7607</v>
       </c>
       <c r="E10" t="n">
-        <v>94.17</v>
+        <v>0.9417</v>
       </c>
     </row>
   </sheetData>
@@ -2454,13 +2454,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>45.66</v>
+        <v>0.4566</v>
       </c>
       <c r="D2" t="n">
-        <v>33.64</v>
+        <v>0.3364</v>
       </c>
       <c r="E2" t="n">
-        <v>57.68</v>
+        <v>0.5768</v>
       </c>
     </row>
     <row r="3">
@@ -2471,13 +2471,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>71.74</v>
+        <v>0.7174</v>
       </c>
       <c r="D3" t="n">
-        <v>59.77</v>
+        <v>0.5977</v>
       </c>
       <c r="E3" t="n">
-        <v>83.7</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="4">
@@ -2488,13 +2488,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>63.32</v>
+        <v>0.6332</v>
       </c>
       <c r="D4" t="n">
-        <v>53.72</v>
+        <v>0.5372</v>
       </c>
       <c r="E4" t="n">
-        <v>72.92</v>
+        <v>0.7292</v>
       </c>
     </row>
     <row r="5">
@@ -2505,13 +2505,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>46.24</v>
+        <v>0.4624</v>
       </c>
       <c r="D5" t="n">
-        <v>31.22</v>
+        <v>0.3122</v>
       </c>
       <c r="E5" t="n">
-        <v>61.27</v>
+        <v>0.6127</v>
       </c>
     </row>
     <row r="6">
@@ -2522,13 +2522,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>73.86</v>
+        <v>0.7386</v>
       </c>
       <c r="D6" t="n">
-        <v>61.71</v>
+        <v>0.6171</v>
       </c>
       <c r="E6" t="n">
-        <v>86.01</v>
+        <v>0.8601</v>
       </c>
     </row>
     <row r="7">
@@ -2539,13 +2539,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>65.57</v>
+        <v>0.6557</v>
       </c>
       <c r="D7" t="n">
-        <v>54.78</v>
+        <v>0.5478</v>
       </c>
       <c r="E7" t="n">
-        <v>76.36</v>
+        <v>0.7636</v>
       </c>
     </row>
     <row r="8">
@@ -2556,13 +2556,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>45.26</v>
+        <v>0.4526</v>
       </c>
       <c r="D8" t="n">
-        <v>32.19</v>
+        <v>0.3219</v>
       </c>
       <c r="E8" t="n">
-        <v>58.33</v>
+        <v>0.5833</v>
       </c>
     </row>
     <row r="9">
@@ -2573,13 +2573,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>69.17</v>
+        <v>0.6917</v>
       </c>
       <c r="D9" t="n">
-        <v>55.49</v>
+        <v>0.5549</v>
       </c>
       <c r="E9" t="n">
-        <v>82.85</v>
+        <v>0.8285</v>
       </c>
     </row>
     <row r="10">
@@ -2590,13 +2590,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>61.41</v>
+        <v>0.6141</v>
       </c>
       <c r="D10" t="n">
-        <v>49.82</v>
+        <v>0.4982</v>
       </c>
       <c r="E10" t="n">
-        <v>73.01</v>
+        <v>0.7301</v>
       </c>
     </row>
   </sheetData>
@@ -2638,13 +2638,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>25.33</v>
+        <v>0.2533</v>
       </c>
       <c r="D2" t="n">
-        <v>7.89</v>
+        <v>0.0789</v>
       </c>
       <c r="E2" t="n">
-        <v>42.78</v>
+        <v>0.4278</v>
       </c>
     </row>
     <row r="3">
@@ -2655,13 +2655,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>62.08</v>
+        <v>0.6208</v>
       </c>
       <c r="D3" t="n">
-        <v>45.07</v>
+        <v>0.4507</v>
       </c>
       <c r="E3" t="n">
-        <v>79.1</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="4">
@@ -2672,13 +2672,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>49.14</v>
+        <v>0.4914</v>
       </c>
       <c r="D4" t="n">
-        <v>34.02</v>
+        <v>0.3402</v>
       </c>
       <c r="E4" t="n">
-        <v>64.26</v>
+        <v>0.6426</v>
       </c>
     </row>
     <row r="5">
@@ -2689,13 +2689,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>24.28</v>
+        <v>0.2428</v>
       </c>
       <c r="D5" t="n">
-        <v>4.65</v>
+        <v>0.0465</v>
       </c>
       <c r="E5" t="n">
-        <v>43.9</v>
+        <v>0.439</v>
       </c>
     </row>
     <row r="6">
@@ -2706,13 +2706,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>64.26</v>
+        <v>0.6426</v>
       </c>
       <c r="D6" t="n">
-        <v>46.49</v>
+        <v>0.4649</v>
       </c>
       <c r="E6" t="n">
-        <v>82.03</v>
+        <v>0.8203</v>
       </c>
     </row>
     <row r="7">
@@ -2723,13 +2723,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>49.65</v>
+        <v>0.4965</v>
       </c>
       <c r="D7" t="n">
-        <v>33.49</v>
+        <v>0.3349</v>
       </c>
       <c r="E7" t="n">
-        <v>65.81</v>
+        <v>0.6581</v>
       </c>
     </row>
     <row r="8">
@@ -2740,13 +2740,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>25.93</v>
+        <v>0.2593</v>
       </c>
       <c r="D8" t="n">
-        <v>8.06</v>
+        <v>0.0806</v>
       </c>
       <c r="E8" t="n">
-        <v>43.8</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="9">
@@ -2757,13 +2757,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>58.58</v>
+        <v>0.5858</v>
       </c>
       <c r="D9" t="n">
-        <v>40.14</v>
+        <v>0.4014</v>
       </c>
       <c r="E9" t="n">
-        <v>77.02</v>
+        <v>0.7702</v>
       </c>
     </row>
     <row r="10">
@@ -2774,13 +2774,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>47.53</v>
+        <v>0.4753</v>
       </c>
       <c r="D10" t="n">
-        <v>32.56</v>
+        <v>0.3256</v>
       </c>
       <c r="E10" t="n">
-        <v>62.51</v>
+        <v>0.6251</v>
       </c>
     </row>
   </sheetData>
@@ -2822,13 +2822,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>32.42</v>
+        <v>0.3242</v>
       </c>
       <c r="D2" t="n">
-        <v>20.5</v>
+        <v>0.205</v>
       </c>
       <c r="E2" t="n">
-        <v>44.35</v>
+        <v>0.4435</v>
       </c>
     </row>
     <row r="3">
@@ -2839,13 +2839,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>62.34</v>
+        <v>0.6234</v>
       </c>
       <c r="D3" t="n">
-        <v>50.79</v>
+        <v>0.5079</v>
       </c>
       <c r="E3" t="n">
-        <v>73.89</v>
+        <v>0.7389</v>
       </c>
     </row>
     <row r="4">
@@ -2856,13 +2856,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>51.91</v>
+        <v>0.5191</v>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="E4" t="n">
-        <v>60.82</v>
+        <v>0.6082</v>
       </c>
     </row>
     <row r="5">
@@ -2873,13 +2873,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>33.21</v>
+        <v>0.3321</v>
       </c>
       <c r="D5" t="n">
-        <v>19.86</v>
+        <v>0.1986</v>
       </c>
       <c r="E5" t="n">
-        <v>46.56</v>
+        <v>0.4656</v>
       </c>
     </row>
     <row r="6">
@@ -2890,13 +2890,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>65.43</v>
+        <v>0.6543</v>
       </c>
       <c r="D6" t="n">
-        <v>39.96</v>
+        <v>0.3996</v>
       </c>
       <c r="E6" t="n">
-        <v>90.9</v>
+        <v>0.909</v>
       </c>
     </row>
     <row r="7">
@@ -2907,13 +2907,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>53.54</v>
+        <v>0.5354</v>
       </c>
       <c r="D7" t="n">
-        <v>43.91</v>
+        <v>0.4391</v>
       </c>
       <c r="E7" t="n">
-        <v>63.18</v>
+        <v>0.6318</v>
       </c>
     </row>
     <row r="8">
@@ -2924,13 +2924,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>31.55</v>
+        <v>0.3155</v>
       </c>
       <c r="D8" t="n">
-        <v>18.64</v>
+        <v>0.1864</v>
       </c>
       <c r="E8" t="n">
-        <v>44.46</v>
+        <v>0.4446</v>
       </c>
     </row>
     <row r="9">
@@ -2941,13 +2941,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>58.92</v>
+        <v>0.5892</v>
       </c>
       <c r="D9" t="n">
-        <v>44.85</v>
+        <v>0.4485</v>
       </c>
       <c r="E9" t="n">
-        <v>73</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="10">
@@ -2958,13 +2958,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>49.83</v>
+        <v>0.4983</v>
       </c>
       <c r="D10" t="n">
-        <v>39.43</v>
+        <v>0.3943</v>
       </c>
       <c r="E10" t="n">
-        <v>60.23</v>
+        <v>0.6023</v>
       </c>
     </row>
   </sheetData>
@@ -3006,13 +3006,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="D2" t="n">
-        <v>22.2</v>
+        <v>0.222</v>
       </c>
       <c r="E2" t="n">
-        <v>45.8</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="3">
@@ -3023,13 +3023,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="D3" t="n">
-        <v>58.97</v>
+        <v>0.5897</v>
       </c>
       <c r="E3" t="n">
-        <v>81.02</v>
+        <v>0.8102</v>
       </c>
     </row>
     <row r="4">
@@ -3040,13 +3040,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>59.76</v>
+        <v>0.5976</v>
       </c>
       <c r="D4" t="n">
-        <v>49.56</v>
+        <v>0.4956</v>
       </c>
       <c r="E4" t="n">
-        <v>69.95</v>
+        <v>0.6995</v>
       </c>
     </row>
     <row r="5">
@@ -3057,13 +3057,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>33.82</v>
+        <v>0.3382</v>
       </c>
       <c r="D5" t="n">
-        <v>18.96</v>
+        <v>0.1896</v>
       </c>
       <c r="E5" t="n">
-        <v>48.68</v>
+        <v>0.4868</v>
       </c>
     </row>
     <row r="6">
@@ -3074,13 +3074,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>79.58</v>
+        <v>0.7958</v>
       </c>
       <c r="D6" t="n">
-        <v>69.15</v>
+        <v>0.6915</v>
       </c>
       <c r="E6" t="n">
-        <v>90.01</v>
+        <v>0.9001</v>
       </c>
     </row>
     <row r="7">
@@ -3091,13 +3091,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>66.33</v>
+        <v>0.6633</v>
       </c>
       <c r="D7" t="n">
-        <v>55.97</v>
+        <v>0.5597</v>
       </c>
       <c r="E7" t="n">
-        <v>76.7</v>
+        <v>0.767</v>
       </c>
     </row>
     <row r="8">
@@ -3108,13 +3108,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33.92</v>
+        <v>0.3392</v>
       </c>
       <c r="D8" t="n">
-        <v>20.45</v>
+        <v>0.2045</v>
       </c>
       <c r="E8" t="n">
-        <v>47.38</v>
+        <v>0.4738</v>
       </c>
     </row>
     <row r="9">
@@ -3125,13 +3125,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>59.65</v>
+        <v>0.5965</v>
       </c>
       <c r="D9" t="n">
-        <v>45.12</v>
+        <v>0.4512</v>
       </c>
       <c r="E9" t="n">
-        <v>74.17</v>
+        <v>0.7417</v>
       </c>
     </row>
     <row r="10">
@@ -3142,13 +3142,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>52.17</v>
+        <v>0.5217</v>
       </c>
       <c r="D10" t="n">
-        <v>39.72</v>
+        <v>0.3972</v>
       </c>
       <c r="E10" t="n">
-        <v>64.62</v>
+        <v>0.6462</v>
       </c>
     </row>
   </sheetData>
@@ -3190,13 +3190,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>78.55</v>
+        <v>0.7855</v>
       </c>
       <c r="D2" t="n">
-        <v>66.3</v>
+        <v>0.663</v>
       </c>
       <c r="E2" t="n">
-        <v>90.8</v>
+        <v>0.908</v>
       </c>
     </row>
     <row r="3">
@@ -3207,13 +3207,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>95.7</v>
+        <v>0.957</v>
       </c>
       <c r="D3" t="n">
-        <v>91.35</v>
+        <v>0.9135</v>
       </c>
       <c r="E3" t="n">
-        <v>99.99</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="4">
@@ -3224,13 +3224,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>90.54</v>
+        <v>0.9054</v>
       </c>
       <c r="D4" t="n">
-        <v>84.71</v>
+        <v>0.8471</v>
       </c>
       <c r="E4" t="n">
-        <v>96.36</v>
+        <v>0.9636</v>
       </c>
     </row>
     <row r="5">
@@ -3241,13 +3241,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>78.55</v>
+        <v>0.7855</v>
       </c>
       <c r="D5" t="n">
-        <v>64.32</v>
+        <v>0.6432</v>
       </c>
       <c r="E5" t="n">
-        <v>92.78</v>
+        <v>0.9278</v>
       </c>
     </row>
     <row r="6">
@@ -3258,13 +3258,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>95.15</v>
+        <v>0.9515</v>
       </c>
       <c r="D6" t="n">
-        <v>89.7</v>
+        <v>0.897</v>
       </c>
       <c r="E6" t="n">
-        <v>99.99</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="7">
@@ -3275,13 +3275,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>90.48</v>
+        <v>0.9048</v>
       </c>
       <c r="D7" t="n">
-        <v>84.29</v>
+        <v>0.8429</v>
       </c>
       <c r="E7" t="n">
-        <v>96.67</v>
+        <v>0.9667</v>
       </c>
     </row>
     <row r="8">
@@ -3292,13 +3292,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>79.03</v>
+        <v>0.7903</v>
       </c>
       <c r="D8" t="n">
-        <v>65.4</v>
+        <v>0.654</v>
       </c>
       <c r="E8" t="n">
-        <v>92.65</v>
+        <v>0.9265</v>
       </c>
     </row>
     <row r="9">
@@ -3309,13 +3309,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>96.34</v>
+        <v>0.9634</v>
       </c>
       <c r="D9" t="n">
-        <v>92.16</v>
+        <v>0.9216</v>
       </c>
       <c r="E9" t="n">
-        <v>99.99</v>
+        <v>0.9999</v>
       </c>
     </row>
     <row r="10">
@@ -3326,13 +3326,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>90.88</v>
+        <v>0.9088</v>
       </c>
       <c r="D10" t="n">
-        <v>84.57</v>
+        <v>0.8457</v>
       </c>
       <c r="E10" t="n">
-        <v>97.19</v>
+        <v>0.9719</v>
       </c>
     </row>
   </sheetData>
@@ -3374,13 +3374,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>44.79</v>
+        <v>0.4479</v>
       </c>
       <c r="D2" t="n">
-        <v>27.52</v>
+        <v>0.2752</v>
       </c>
       <c r="E2" t="n">
-        <v>62.07</v>
+        <v>0.6207</v>
       </c>
     </row>
     <row r="3">
@@ -3391,13 +3391,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>75.17</v>
+        <v>0.7517</v>
       </c>
       <c r="D3" t="n">
-        <v>63.56</v>
+        <v>0.6356</v>
       </c>
       <c r="E3" t="n">
-        <v>86.77</v>
+        <v>0.8677</v>
       </c>
     </row>
     <row r="4">
@@ -3408,13 +3408,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>64.55</v>
+        <v>0.6455</v>
       </c>
       <c r="D4" t="n">
-        <v>53.52</v>
+        <v>0.5352</v>
       </c>
       <c r="E4" t="n">
-        <v>75.58</v>
+        <v>0.7558</v>
       </c>
     </row>
     <row r="5">
@@ -3425,13 +3425,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>44.27</v>
+        <v>0.4427</v>
       </c>
       <c r="D5" t="n">
-        <v>27.25</v>
+        <v>0.2725</v>
       </c>
       <c r="E5" t="n">
-        <v>61.29</v>
+        <v>0.6129</v>
       </c>
     </row>
     <row r="6">
@@ -3442,13 +3442,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>75.78</v>
+        <v>0.7578</v>
       </c>
       <c r="D6" t="n">
-        <v>64.45</v>
+        <v>0.6445</v>
       </c>
       <c r="E6" t="n">
-        <v>87.12</v>
+        <v>0.8712</v>
       </c>
     </row>
     <row r="7">
@@ -3459,13 +3459,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>64.07</v>
+        <v>0.6407</v>
       </c>
       <c r="D7" t="n">
-        <v>53.18</v>
+        <v>0.5318</v>
       </c>
       <c r="E7" t="n">
-        <v>74.95</v>
+        <v>0.7495</v>
       </c>
     </row>
     <row r="8">
@@ -3476,13 +3476,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>44.86</v>
+        <v>0.4486</v>
       </c>
       <c r="D8" t="n">
-        <v>26.83</v>
+        <v>0.2683</v>
       </c>
       <c r="E8" t="n">
-        <v>62.89</v>
+        <v>0.6289</v>
       </c>
     </row>
     <row r="9">
@@ -3493,13 +3493,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="D9" t="n">
-        <v>60.9</v>
+        <v>0.609</v>
       </c>
       <c r="E9" t="n">
-        <v>87.11</v>
+        <v>0.8711</v>
       </c>
     </row>
     <row r="10">
@@ -3510,13 +3510,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>64.56</v>
+        <v>0.6456</v>
       </c>
       <c r="D10" t="n">
-        <v>52.43</v>
+        <v>0.5243</v>
       </c>
       <c r="E10" t="n">
-        <v>76.69</v>
+        <v>0.7669</v>
       </c>
     </row>
   </sheetData>
@@ -3558,13 +3558,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>31.58</v>
+        <v>0.3158</v>
       </c>
       <c r="D2" t="n">
-        <v>20.33</v>
+        <v>0.2033</v>
       </c>
       <c r="E2" t="n">
-        <v>42.83</v>
+        <v>0.4283</v>
       </c>
     </row>
     <row r="3">
@@ -3575,13 +3575,13 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>76.85</v>
+        <v>0.7685</v>
       </c>
       <c r="D3" t="n">
-        <v>68.47</v>
+        <v>0.6847</v>
       </c>
       <c r="E3" t="n">
-        <v>85.23</v>
+        <v>0.8523</v>
       </c>
     </row>
     <row r="4">
@@ -3592,13 +3592,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="n">
-        <v>64.43</v>
+        <v>0.6443</v>
       </c>
       <c r="D4" t="n">
-        <v>56.27</v>
+        <v>0.5627</v>
       </c>
       <c r="E4" t="n">
-        <v>72.59</v>
+        <v>0.7259</v>
       </c>
     </row>
     <row r="5">
@@ -3609,13 +3609,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="n">
-        <v>29.55</v>
+        <v>0.2955</v>
       </c>
       <c r="D5" t="n">
-        <v>17.44</v>
+        <v>0.1744</v>
       </c>
       <c r="E5" t="n">
-        <v>41.66</v>
+        <v>0.4166</v>
       </c>
     </row>
     <row r="6">
@@ -3626,13 +3626,13 @@
         <v>6</v>
       </c>
       <c r="C6" t="n">
-        <v>78.47</v>
+        <v>0.7847</v>
       </c>
       <c r="D6" t="n">
-        <v>69.34</v>
+        <v>0.6934</v>
       </c>
       <c r="E6" t="n">
-        <v>87.59</v>
+        <v>0.8759</v>
       </c>
     </row>
     <row r="7">
@@ -3643,13 +3643,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>65.53</v>
+        <v>0.6553</v>
       </c>
       <c r="D7" t="n">
-        <v>57.03</v>
+        <v>0.5703</v>
       </c>
       <c r="E7" t="n">
-        <v>74.04</v>
+        <v>0.7404</v>
       </c>
     </row>
     <row r="8">
@@ -3660,13 +3660,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="n">
-        <v>33.19</v>
+        <v>0.3319</v>
       </c>
       <c r="D8" t="n">
-        <v>19.54</v>
+        <v>0.1954</v>
       </c>
       <c r="E8" t="n">
-        <v>46.83</v>
+        <v>0.4683</v>
       </c>
     </row>
     <row r="9">
@@ -3677,13 +3677,13 @@
         <v>6</v>
       </c>
       <c r="C9" t="n">
-        <v>75.19</v>
+        <v>0.7519</v>
       </c>
       <c r="D9" t="n">
-        <v>65.69</v>
+        <v>0.6569</v>
       </c>
       <c r="E9" t="n">
-        <v>84.68</v>
+        <v>0.8468</v>
       </c>
     </row>
     <row r="10">
@@ -3694,13 +3694,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="n">
-        <v>63.72</v>
+        <v>0.6372</v>
       </c>
       <c r="D10" t="n">
-        <v>54.6</v>
+        <v>0.546</v>
       </c>
       <c r="E10" t="n">
-        <v>72.83</v>
+        <v>0.7283</v>
       </c>
     </row>
   </sheetData>
